--- a/Conf/Config.xlsx
+++ b/Conf/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="648" windowWidth="14808" windowHeight="7476" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="768" windowWidth="14808" windowHeight="7356" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Conveyor" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="TestDataTemplate" sheetId="3" r:id="rId3"/>
     <sheet name="XmlTemplate" sheetId="4" r:id="rId4"/>
     <sheet name="L1AlarmDataTemple" sheetId="5" r:id="rId5"/>
+    <sheet name="OPCDataTemplate" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="146">
   <si>
     <t>System</t>
   </si>
@@ -470,6 +471,24 @@
   </si>
   <si>
     <t>Powerbox_4_Single2</t>
+  </si>
+  <si>
+    <t>{0}_{1}_{2}_{3}_SIGNAL_{4}</t>
+  </si>
+  <si>
+    <t>{0}_{1}_{2}_{3}_CM</t>
+  </si>
+  <si>
+    <t>{0}_{1}_{2}_{3}_Hour</t>
+  </si>
+  <si>
+    <t>CRISBELT_PLC01_TL35_BC045_SIGNAL_1</t>
+  </si>
+  <si>
+    <t>CRISBELT_PLC07_EB03_BC019_CM</t>
+  </si>
+  <si>
+    <t>CRISBELT_PLC07_EB03_BC019_Hour</t>
   </si>
 </sst>
 </file>
@@ -814,7 +833,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,7 +978,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B16" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1214,7 +1233,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1317,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1615,4 +1634,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Conf/Config.xlsx
+++ b/Conf/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="768" windowWidth="14808" windowHeight="7356" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="768" windowWidth="14808" windowHeight="7356" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Conveyor" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="157">
   <si>
     <t>System</t>
   </si>
@@ -329,21 +329,6 @@
     <t>Describe</t>
   </si>
   <si>
-    <t>Conv_47_Single1</t>
-  </si>
-  <si>
-    <t>Dep_Carousel_Single1</t>
-  </si>
-  <si>
-    <t>Diverter_1_Single1</t>
-  </si>
-  <si>
-    <t>PPC_2_Single1</t>
-  </si>
-  <si>
-    <t>Counter_1_Single1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ready </t>
   </si>
   <si>
@@ -461,18 +446,6 @@
     <t>Critical</t>
   </si>
   <si>
-    <t>PowerPanel_2_Single1</t>
-  </si>
-  <si>
-    <t>Powerbox_4_Single1</t>
-  </si>
-  <si>
-    <t>PowerPanel_2_Single2</t>
-  </si>
-  <si>
-    <t>Powerbox_4_Single2</t>
-  </si>
-  <si>
     <t>{0}_{1}_{2}_{3}_SIGNAL_{4}</t>
   </si>
   <si>
@@ -489,6 +462,66 @@
   </si>
   <si>
     <t>CRISBELT_PLC07_EB03_BC019_Hour</t>
+  </si>
+  <si>
+    <t>Conv_48_SIGNAL1</t>
+  </si>
+  <si>
+    <t>Conv_48_SIGNAL2</t>
+  </si>
+  <si>
+    <t>Conv_48_SIGNAL3</t>
+  </si>
+  <si>
+    <t>{24,25}</t>
+  </si>
+  <si>
+    <t>{8,19,20,21,22,23,28,29,30,31}</t>
+  </si>
+  <si>
+    <t>{8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31}</t>
+  </si>
+  <si>
+    <t>Conv_47_SIGNAL1</t>
+  </si>
+  <si>
+    <t>Dep_Carousel_SIGNAL1</t>
+  </si>
+  <si>
+    <t>Diverter_1_SIGNAL1</t>
+  </si>
+  <si>
+    <t>PPC_2_SIGNAL1</t>
+  </si>
+  <si>
+    <t>Counter_1_SIGNAL1</t>
+  </si>
+  <si>
+    <t>PowerPanel_2_SIGNAL1</t>
+  </si>
+  <si>
+    <t>Powerbox_4_SIGNAL1</t>
+  </si>
+  <si>
+    <t>PowerPanel_2_SIGNAL2</t>
+  </si>
+  <si>
+    <t>Powerbox_4_SIGNAL2</t>
+  </si>
+  <si>
+    <t>{29}</t>
+  </si>
+  <si>
+    <t>{5,10,30}</t>
+  </si>
+  <si>
+    <t>{26}</t>
+  </si>
+  <si>
+    <t>{0,3,6,7,8,9,12,14,20}</t>
+  </si>
+  <si>
+    <t>{4,13,15}</t>
   </si>
 </sst>
 </file>
@@ -1334,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,12 +1379,15 @@
     <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1359,268 +1395,316 @@
         <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="I1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>138</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="L6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="L7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>153</v>
+      </c>
+      <c r="M11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="L14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1628,7 +1712,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1640,7 +1724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1660,26 +1744,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
